--- a/Surveys/2023/07_31_2023_Tracer_Survey.xlsx
+++ b/Surveys/2023/07_31_2023_Tracer_Survey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\RFID_tracers\Surveys\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\RFID_tracers\Surveys\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7939AC5A-7985-4BA1-90F6-A76ADDD9235F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D352B087-0D61-4851-9AF6-4E3058E1F4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69298AC6-6E72-4BA9-9E2C-E826529E513B}"/>
+    <workbookView xWindow="-25320" yWindow="360" windowWidth="25440" windowHeight="15270" xr2:uid="{69298AC6-6E72-4BA9-9E2C-E826529E513B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="10">
   <si>
     <t>Distance from reference point</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Reference point</t>
+  </si>
+  <si>
+    <t>Added on 7-11-2023</t>
   </si>
 </sst>
 </file>
@@ -413,6 +416,15 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -422,13 +434,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -438,9 +444,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -764,43 +767,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0694FFA4-917A-4B6E-97D0-115474C635A2}">
   <dimension ref="A1:K213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G206" sqref="G206"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N199" sqref="N199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="7" width="14.88671875" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="16" max="16" width="17.44140625" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="28" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -822,11 +825,11 @@
       <c r="G3" s="5">
         <v>2.41</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>4</v>
       </c>
@@ -849,7 +852,7 @@
         <v>2.0900000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>105</v>
       </c>
@@ -872,7 +875,7 @@
         <v>1.7499999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>25</v>
       </c>
@@ -895,7 +898,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>30</v>
       </c>
@@ -918,7 +921,7 @@
         <v>1.3499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>88</v>
       </c>
@@ -935,7 +938,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>67</v>
       </c>
@@ -958,7 +961,7 @@
         <v>1.7699999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -969,7 +972,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -992,7 +995,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>113</v>
       </c>
@@ -1003,7 +1006,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>42</v>
       </c>
@@ -1026,7 +1029,7 @@
         <v>0.82000000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>44</v>
       </c>
@@ -1049,7 +1052,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>5</v>
       </c>
@@ -1060,7 +1063,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>24</v>
       </c>
@@ -1083,7 +1086,7 @@
         <v>1.3599999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>99</v>
       </c>
@@ -1094,7 +1097,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -1117,7 +1120,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -1140,7 +1143,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>112</v>
       </c>
@@ -1163,7 +1166,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>54</v>
       </c>
@@ -1174,7 +1177,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>38</v>
       </c>
@@ -1185,7 +1188,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>33</v>
       </c>
@@ -1196,7 +1199,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>117</v>
       </c>
@@ -1207,7 +1210,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>26</v>
       </c>
@@ -1218,7 +1221,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>55</v>
       </c>
@@ -1241,7 +1244,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>32</v>
       </c>
@@ -1252,7 +1255,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>59</v>
       </c>
@@ -1263,7 +1266,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>57</v>
       </c>
@@ -1286,7 +1289,7 @@
         <v>0.84999999999999987</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>104</v>
       </c>
@@ -1297,7 +1300,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>87</v>
       </c>
@@ -1320,7 +1323,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>72</v>
       </c>
@@ -1331,7 +1334,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>82</v>
       </c>
@@ -1342,7 +1345,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>71</v>
       </c>
@@ -1353,7 +1356,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>51</v>
       </c>
@@ -1364,7 +1367,7 @@
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>80</v>
       </c>
@@ -1387,7 +1390,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>63</v>
       </c>
@@ -1398,7 +1401,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
         <v>1050</v>
       </c>
@@ -1409,7 +1412,7 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
         <v>1026</v>
       </c>
@@ -1420,7 +1423,7 @@
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
         <v>1055</v>
       </c>
@@ -1431,7 +1434,7 @@
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
         <v>1037</v>
       </c>
@@ -1442,7 +1445,7 @@
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>127</v>
       </c>
@@ -1465,7 +1468,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>134</v>
       </c>
@@ -1488,7 +1491,7 @@
         <v>3.5500000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>79</v>
       </c>
@@ -1499,7 +1502,7 @@
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
         <v>1017</v>
       </c>
@@ -1510,7 +1513,7 @@
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="19">
         <v>1036</v>
       </c>
@@ -1521,7 +1524,7 @@
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="19">
         <v>1044</v>
       </c>
@@ -1532,7 +1535,7 @@
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="19">
         <v>1065</v>
       </c>
@@ -1543,15 +1546,15 @@
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="27" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>6</v>
       </c>
@@ -1574,7 +1577,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>92</v>
       </c>
@@ -1597,7 +1600,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>96</v>
       </c>
@@ -1620,7 +1623,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>12</v>
       </c>
@@ -1643,7 +1646,7 @@
         <v>1.8299999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>125</v>
       </c>
@@ -1666,7 +1669,7 @@
         <v>0.82999999999999985</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>68</v>
       </c>
@@ -1677,7 +1680,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>86</v>
       </c>
@@ -1688,7 +1691,7 @@
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>126</v>
       </c>
@@ -1699,7 +1702,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>77</v>
       </c>
@@ -1722,7 +1725,7 @@
         <v>0.38000000000000006</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>76</v>
       </c>
@@ -1745,7 +1748,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>69</v>
       </c>
@@ -1768,7 +1771,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>74</v>
       </c>
@@ -1779,7 +1782,7 @@
       <c r="F61" s="14"/>
       <c r="G61" s="14"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="19">
         <v>1028</v>
       </c>
@@ -1790,18 +1793,20 @@
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B63" s="2"/>
+      <c r="B63" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>36</v>
       </c>
@@ -1824,7 +1829,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>107</v>
       </c>
@@ -1847,7 +1852,7 @@
         <v>1.9000000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>132</v>
       </c>
@@ -1870,7 +1875,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>62</v>
       </c>
@@ -1881,7 +1886,7 @@
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>85</v>
       </c>
@@ -1904,7 +1909,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="19">
         <v>1049</v>
       </c>
@@ -1915,7 +1920,7 @@
       <c r="F69" s="14"/>
       <c r="G69" s="14"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="19">
         <v>1052</v>
       </c>
@@ -1926,18 +1931,20 @@
       <c r="F70" s="14"/>
       <c r="G70" s="14"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="2"/>
+      <c r="B71" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="14"/>
       <c r="F71" s="14"/>
       <c r="G71" s="14"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="24">
         <v>165</v>
       </c>
@@ -1960,7 +1967,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
         <v>166</v>
       </c>
@@ -1983,7 +1990,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>138</v>
       </c>
@@ -1994,7 +2001,7 @@
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>10</v>
       </c>
@@ -2017,7 +2024,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="25">
         <v>150</v>
       </c>
@@ -2040,7 +2047,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="25">
         <v>156</v>
       </c>
@@ -2063,7 +2070,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="25">
         <v>157</v>
       </c>
@@ -2086,17 +2093,17 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B79" s="33" t="s">
+      <c r="B79" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C79" s="34"/>
-      <c r="D79" s="35"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C79" s="35"/>
+      <c r="D79" s="36"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>1</v>
       </c>
@@ -2107,7 +2114,7 @@
       <c r="F80" s="14"/>
       <c r="G80" s="14"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>22</v>
       </c>
@@ -2118,7 +2125,7 @@
       <c r="F81" s="14"/>
       <c r="G81" s="14"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>114</v>
       </c>
@@ -2129,7 +2136,7 @@
       <c r="F82" s="14"/>
       <c r="G82" s="14"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>90</v>
       </c>
@@ -2152,7 +2159,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>19</v>
       </c>
@@ -2175,7 +2182,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>106</v>
       </c>
@@ -2186,7 +2193,7 @@
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>49</v>
       </c>
@@ -2197,7 +2204,7 @@
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>128</v>
       </c>
@@ -2208,7 +2215,7 @@
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <v>47</v>
       </c>
@@ -2219,7 +2226,7 @@
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>39</v>
       </c>
@@ -2230,7 +2237,7 @@
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>120</v>
       </c>
@@ -2253,7 +2260,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>60</v>
       </c>
@@ -2276,7 +2283,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>130</v>
       </c>
@@ -2287,7 +2294,7 @@
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>123</v>
       </c>
@@ -2310,7 +2317,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>124</v>
       </c>
@@ -2321,7 +2328,7 @@
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>81</v>
       </c>
@@ -2344,7 +2351,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="19">
         <v>1006</v>
       </c>
@@ -2355,7 +2362,7 @@
       <c r="F96" s="14"/>
       <c r="G96" s="14"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="19">
         <v>1011</v>
       </c>
@@ -2366,7 +2373,7 @@
       <c r="F97" s="14"/>
       <c r="G97" s="14"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="19">
         <v>1048</v>
       </c>
@@ -2377,7 +2384,7 @@
       <c r="F98" s="14"/>
       <c r="G98" s="14"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="19">
         <v>1062</v>
       </c>
@@ -2388,7 +2395,7 @@
       <c r="F99" s="14"/>
       <c r="G99" s="14"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
         <v>6</v>
       </c>
@@ -2396,7 +2403,7 @@
       <c r="C100" s="16"/>
       <c r="D100" s="16"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>11</v>
       </c>
@@ -2419,7 +2426,7 @@
         <v>1.6099999999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>97</v>
       </c>
@@ -2442,7 +2449,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>37</v>
       </c>
@@ -2465,7 +2472,7 @@
         <v>1.6099999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <v>108</v>
       </c>
@@ -2488,7 +2495,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>35</v>
       </c>
@@ -2511,7 +2518,7 @@
         <v>1.9000000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>91</v>
       </c>
@@ -2534,7 +2541,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>121</v>
       </c>
@@ -2557,7 +2564,7 @@
         <v>1.9999999999999998</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>46</v>
       </c>
@@ -2580,7 +2587,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="19">
         <v>1051</v>
       </c>
@@ -2591,7 +2598,7 @@
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="19">
         <v>1042</v>
       </c>
@@ -2602,7 +2609,7 @@
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>131</v>
       </c>
@@ -2613,7 +2620,7 @@
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>75</v>
       </c>
@@ -2636,7 +2643,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="19">
         <v>1047</v>
       </c>
@@ -2647,7 +2654,7 @@
       <c r="F113" s="14"/>
       <c r="G113" s="14"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>40</v>
       </c>
@@ -2658,7 +2665,7 @@
       <c r="F114" s="14"/>
       <c r="G114" s="14"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>118</v>
       </c>
@@ -2681,28 +2688,30 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B116" s="32"/>
-      <c r="C116" s="32"/>
-      <c r="D116" s="32"/>
+      <c r="B116" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" s="28"/>
+      <c r="D116" s="28"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>23</v>
       </c>
-      <c r="B117" s="36">
+      <c r="B117" s="5">
         <v>17</v>
       </c>
-      <c r="C117" s="36">
+      <c r="C117" s="5">
         <v>16</v>
       </c>
-      <c r="D117" s="36">
+      <c r="D117" s="5">
         <v>15</v>
       </c>
       <c r="E117" s="5">
@@ -2715,7 +2724,7 @@
         <v>4.26</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="8">
         <v>110</v>
       </c>
@@ -2738,7 +2747,7 @@
         <v>2.6100000000000003</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
         <v>48</v>
       </c>
@@ -2749,7 +2758,7 @@
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>61</v>
       </c>
@@ -2772,17 +2781,17 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>52</v>
       </c>
-      <c r="B121" s="32">
+      <c r="B121" s="28">
         <v>17</v>
       </c>
-      <c r="C121" s="32">
+      <c r="C121" s="28">
         <v>16</v>
       </c>
-      <c r="D121" s="32">
+      <c r="D121" s="28">
         <v>15</v>
       </c>
       <c r="E121" s="5">
@@ -2795,7 +2804,7 @@
         <v>1.7099999999999997</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="19">
         <v>1061</v>
       </c>
@@ -2806,7 +2815,7 @@
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
     </row>
-    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="19">
         <v>1040</v>
       </c>
@@ -2817,7 +2826,7 @@
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="19">
         <v>1053</v>
       </c>
@@ -2840,15 +2849,17 @@
         <v>2.4400000000000004</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B125" s="2"/>
+      <c r="B125" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>139</v>
       </c>
@@ -2871,7 +2882,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>142</v>
       </c>
@@ -2894,7 +2905,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>146</v>
       </c>
@@ -2917,7 +2928,7 @@
         <v>3.5900000000000003</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>149</v>
       </c>
@@ -2940,7 +2951,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
         <v>158</v>
       </c>
@@ -2963,7 +2974,7 @@
         <v>2.9000000000000004</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
         <v>164</v>
       </c>
@@ -2986,7 +2997,7 @@
         <v>3.6900000000000004</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="26">
         <v>154</v>
       </c>
@@ -3009,7 +3020,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>169</v>
       </c>
@@ -3032,7 +3043,7 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
         <v>3</v>
       </c>
@@ -3042,7 +3053,7 @@
       <c r="C134" s="17"/>
       <c r="D134" s="18"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>1</v>
       </c>
@@ -3053,7 +3064,7 @@
       <c r="F135" s="14"/>
       <c r="G135" s="14"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>8</v>
       </c>
@@ -3076,7 +3087,7 @@
         <v>1.5899999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="7">
         <v>2</v>
       </c>
@@ -3099,7 +3110,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="7">
         <v>43</v>
       </c>
@@ -3110,7 +3121,7 @@
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>15</v>
       </c>
@@ -3133,7 +3144,7 @@
         <v>1.7499999999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>94</v>
       </c>
@@ -3156,7 +3167,7 @@
         <v>1.7699999999999998</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>95</v>
       </c>
@@ -3179,7 +3190,7 @@
         <v>2.0300000000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="8">
         <v>109</v>
       </c>
@@ -3190,7 +3201,7 @@
       <c r="F142" s="14"/>
       <c r="G142" s="14"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="8">
         <v>66</v>
       </c>
@@ -3201,7 +3212,7 @@
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
         <v>73</v>
       </c>
@@ -3212,7 +3223,7 @@
       <c r="F144" s="14"/>
       <c r="G144" s="14"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
         <v>129</v>
       </c>
@@ -3223,7 +3234,7 @@
       <c r="F145" s="14"/>
       <c r="G145" s="14"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
         <v>70</v>
       </c>
@@ -3234,7 +3245,7 @@
       <c r="F146" s="14"/>
       <c r="G146" s="14"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
         <v>58</v>
       </c>
@@ -3245,7 +3256,7 @@
       <c r="F147" s="14"/>
       <c r="G147" s="14"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
         <v>136</v>
       </c>
@@ -3256,7 +3267,7 @@
       <c r="F148" s="14"/>
       <c r="G148" s="14"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="19">
         <v>1039</v>
       </c>
@@ -3267,7 +3278,7 @@
       <c r="F149" s="14"/>
       <c r="G149" s="14"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="19">
         <v>1005</v>
       </c>
@@ -3278,7 +3289,7 @@
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="19">
         <v>1031</v>
       </c>
@@ -3301,7 +3312,7 @@
         <v>1.7499999999999998</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="19">
         <v>1010</v>
       </c>
@@ -3312,12 +3323,17 @@
       <c r="F152" s="14"/>
       <c r="G152" s="14"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B153" s="21"/>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>7</v>
+      </c>
+      <c r="B153" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="C153" s="21"/>
       <c r="D153" s="21"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>140</v>
       </c>
@@ -3328,7 +3344,7 @@
       <c r="F154" s="14"/>
       <c r="G154" s="14"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>143</v>
       </c>
@@ -3339,7 +3355,7 @@
       <c r="F155" s="14"/>
       <c r="G155" s="14"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>145</v>
       </c>
@@ -3362,7 +3378,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>147</v>
       </c>
@@ -3373,7 +3389,7 @@
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="8">
         <v>160</v>
       </c>
@@ -3396,7 +3412,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="8">
         <v>162</v>
       </c>
@@ -3419,7 +3435,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>18</v>
       </c>
@@ -3442,7 +3458,7 @@
         <v>3.6300000000000003</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>170</v>
       </c>
@@ -3465,7 +3481,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="26">
         <v>155</v>
       </c>
@@ -3488,7 +3504,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="26">
         <v>152</v>
       </c>
@@ -3511,7 +3527,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>168</v>
       </c>
@@ -3534,7 +3550,7 @@
         <v>3.9400000000000004</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="12" t="s">
         <v>4</v>
       </c>
@@ -3544,7 +3560,7 @@
       <c r="C165" s="17"/>
       <c r="D165" s="18"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>1</v>
       </c>
@@ -3555,7 +3571,7 @@
       <c r="F166" s="14"/>
       <c r="G166" s="14"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>1</v>
       </c>
@@ -3578,7 +3594,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="7">
         <v>41</v>
       </c>
@@ -3589,7 +3605,7 @@
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>17</v>
       </c>
@@ -3612,7 +3628,7 @@
         <v>1.1099999999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>29</v>
       </c>
@@ -3623,7 +3639,7 @@
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>14</v>
       </c>
@@ -3634,7 +3650,7 @@
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="8">
         <v>119</v>
       </c>
@@ -3657,7 +3673,7 @@
         <v>0.57000000000000006</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="8">
         <v>45</v>
       </c>
@@ -3668,7 +3684,7 @@
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="8">
         <v>20</v>
       </c>
@@ -3691,7 +3707,7 @@
         <v>0.62000000000000011</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="8">
         <v>34</v>
       </c>
@@ -3702,7 +3718,7 @@
       <c r="F175" s="14"/>
       <c r="G175" s="14"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
         <v>64</v>
       </c>
@@ -3713,7 +3729,7 @@
       <c r="F176" s="14"/>
       <c r="G176" s="14"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
         <v>56</v>
       </c>
@@ -3724,7 +3740,7 @@
       <c r="F177" s="14"/>
       <c r="G177" s="14"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
         <v>78</v>
       </c>
@@ -3735,7 +3751,7 @@
       <c r="F178" s="14"/>
       <c r="G178" s="14"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="19">
         <v>1002</v>
       </c>
@@ -3746,7 +3762,7 @@
       <c r="F179" s="14"/>
       <c r="G179" s="14"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="19">
         <v>1014</v>
       </c>
@@ -3757,7 +3773,7 @@
       <c r="F180" s="14"/>
       <c r="G180" s="14"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="19">
         <v>1043</v>
       </c>
@@ -3768,7 +3784,7 @@
       <c r="F181" s="14"/>
       <c r="G181" s="14"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="19">
         <v>1058</v>
       </c>
@@ -3779,15 +3795,15 @@
       <c r="F182" s="14"/>
       <c r="G182" s="14"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A183" s="27" t="s">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B183" s="27"/>
-      <c r="C183" s="27"/>
-      <c r="D183" s="27"/>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B183" s="30"/>
+      <c r="C183" s="30"/>
+      <c r="D183" s="30"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="7">
         <v>9</v>
       </c>
@@ -3810,7 +3826,7 @@
         <v>0.65999999999999992</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>111</v>
       </c>
@@ -3833,7 +3849,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="8">
         <v>89</v>
       </c>
@@ -3856,7 +3872,7 @@
         <v>0.83999999999999986</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="8">
         <v>63</v>
       </c>
@@ -3867,7 +3883,7 @@
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="8">
         <v>102</v>
       </c>
@@ -3890,7 +3906,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="8">
         <v>116</v>
       </c>
@@ -3913,7 +3929,7 @@
         <v>0.57000000000000006</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="9">
         <v>122</v>
       </c>
@@ -3936,7 +3952,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="9">
         <v>135</v>
       </c>
@@ -3959,15 +3975,20 @@
         <v>0.65999999999999992</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B192" s="2"/>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>7</v>
+      </c>
+      <c r="B192" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
         <v>137</v>
       </c>
@@ -3990,7 +4011,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
         <v>141</v>
       </c>
@@ -4013,7 +4034,7 @@
         <v>0.6399999999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
         <v>144</v>
       </c>
@@ -4036,7 +4057,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
         <v>148</v>
       </c>
@@ -4059,7 +4080,7 @@
         <v>1.1199999999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="8">
         <v>159</v>
       </c>
@@ -4082,7 +4103,7 @@
         <v>0.27999999999999997</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="8">
         <v>161</v>
       </c>
@@ -4105,7 +4126,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="8">
         <v>163</v>
       </c>
@@ -4128,7 +4149,7 @@
         <v>0.65999999999999992</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>101</v>
       </c>
@@ -4151,7 +4172,7 @@
         <v>0.91999999999999993</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="26">
         <v>151</v>
       </c>
@@ -4174,7 +4195,7 @@
         <v>0.23000000000000004</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="26">
         <v>153</v>
       </c>
@@ -4197,7 +4218,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>167</v>
       </c>
@@ -4220,15 +4241,20 @@
         <v>1.3399999999999999</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B204" s="2"/>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>7</v>
+      </c>
+      <c r="B204" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="8">
         <v>98</v>
       </c>
@@ -4251,7 +4277,7 @@
         <v>1.1099999999999999</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="8">
         <v>100</v>
       </c>
@@ -4274,7 +4300,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
         <v>133</v>
       </c>
@@ -4291,7 +4317,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
         <v>65</v>
       </c>
@@ -4314,7 +4340,7 @@
         <v>1.1199999999999999</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="19">
         <v>1045</v>
       </c>
@@ -4337,7 +4363,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="19">
         <v>1057</v>
       </c>
@@ -4360,7 +4386,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="19">
         <v>1063</v>
       </c>
@@ -4371,7 +4397,7 @@
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="19">
         <v>1041</v>
       </c>
@@ -4394,7 +4420,7 @@
         <v>0.57000000000000006</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="22"/>
     </row>
   </sheetData>
